--- a/Worksheet.xlsx
+++ b/Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuch\Documents\Life\Stanford\CS 149\Programming Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4386E20D-C2ED-4593-9FB8-5A01783DF93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A5C5E4-A9F8-41C5-9404-2ED9B607AA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{EF8222F6-42CC-405A-8FAE-24F7668BA578}"/>
   </bookViews>
@@ -3149,10 +3149,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'P4'!$A$2:$A$6</c:f>
+              <c:f>'P4'!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3167,16 +3167,37 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'P4'!$E$2:$E$6</c:f>
+              <c:f>'P4'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>9.9028439661798604</c:v>
                 </c:pt>
@@ -3191,6 +3212,27 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>32.717435549525099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.838610827374872</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.210283687943267</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.036331569664902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.408556149732618</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.172064056939497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.102613917343696</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.028526148969888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3216,6 +3258,7 @@
       <c:valAx>
         <c:axId val="1826117503"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -7018,16 +7061,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>459581</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>97631</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>450056</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>92868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>497681</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>126206</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121443</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7391,7 +7434,7 @@
         <v>196.58600000000001</v>
       </c>
       <c r="D2" s="2">
-        <f>B2/C2</f>
+        <f t="shared" ref="D2:D8" si="0">B2/C2</f>
         <v>2.0019228225814656</v>
       </c>
     </row>
@@ -7406,7 +7449,7 @@
         <v>235.80600000000001</v>
       </c>
       <c r="D3" s="2">
-        <f>B3/C3</f>
+        <f t="shared" si="0"/>
         <v>1.6340847985208178</v>
       </c>
     </row>
@@ -7421,7 +7464,7 @@
         <v>160.035</v>
       </c>
       <c r="D4" s="2">
-        <f>B4/C4</f>
+        <f t="shared" si="0"/>
         <v>2.4014746774143156</v>
       </c>
     </row>
@@ -7436,7 +7479,7 @@
         <v>157.602</v>
       </c>
       <c r="D5" s="2">
-        <f>B5/C5</f>
+        <f t="shared" si="0"/>
         <v>2.4875953350845803</v>
       </c>
     </row>
@@ -7451,7 +7494,7 @@
         <v>119.998</v>
       </c>
       <c r="D6" s="2">
-        <f>B6/C6</f>
+        <f t="shared" si="0"/>
         <v>3.2137702295038251</v>
       </c>
     </row>
@@ -7466,7 +7509,7 @@
         <v>115.047</v>
       </c>
       <c r="D7" s="2">
-        <f>B7/C7</f>
+        <f t="shared" si="0"/>
         <v>3.3496310203655897</v>
       </c>
     </row>
@@ -7481,7 +7524,7 @@
         <v>97.846000000000004</v>
       </c>
       <c r="D8" s="2">
-        <f>B8/C8</f>
+        <f t="shared" si="0"/>
         <v>3.9380455000715409</v>
       </c>
     </row>
@@ -7510,7 +7553,7 @@
         <v>134.96899999999999</v>
       </c>
       <c r="D11" s="2">
-        <f>B11/C11</f>
+        <f t="shared" ref="D11:D17" si="1">B11/C11</f>
         <v>1.6715838451792635</v>
       </c>
     </row>
@@ -7525,7 +7568,7 @@
         <v>225.42099999999999</v>
       </c>
       <c r="D12" s="2">
-        <f>B12/C12</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7540,7 +7583,7 @@
         <v>86.927999999999997</v>
       </c>
       <c r="D13" s="2">
-        <f>B13/C13</f>
+        <f t="shared" si="1"/>
         <v>2.5904311614209461</v>
       </c>
     </row>
@@ -7555,7 +7598,7 @@
         <v>75.683999999999997</v>
       </c>
       <c r="D14" s="2">
-        <f>B14/C14</f>
+        <f t="shared" si="1"/>
         <v>2.974512446488029</v>
       </c>
     </row>
@@ -7570,7 +7613,7 @@
         <v>66.536000000000001</v>
       </c>
       <c r="D15" s="2">
-        <f>B15/C15</f>
+        <f t="shared" si="1"/>
         <v>3.3882409522664423</v>
       </c>
     </row>
@@ -7585,7 +7628,7 @@
         <v>59.430999999999997</v>
       </c>
       <c r="D16" s="2">
-        <f>B16/C16</f>
+        <f t="shared" si="1"/>
         <v>3.7948377109589275</v>
       </c>
     </row>
@@ -7600,7 +7643,7 @@
         <v>54.697000000000003</v>
       </c>
       <c r="D17" s="2">
-        <f>B17/C17</f>
+        <f t="shared" si="1"/>
         <v>4.1160027058156752</v>
       </c>
     </row>
@@ -7731,7 +7774,7 @@
         <v>197.005</v>
       </c>
       <c r="D53" s="2">
-        <f>B53/C53</f>
+        <f t="shared" ref="D53:D67" si="2">B53/C53</f>
         <v>1.9636303647115558</v>
       </c>
     </row>
@@ -7746,7 +7789,7 @@
         <v>132.40100000000001</v>
       </c>
       <c r="D54" s="2">
-        <f>B54/C54</f>
+        <f t="shared" si="2"/>
         <v>2.9183994078594568</v>
       </c>
     </row>
@@ -7761,7 +7804,7 @@
         <v>104.092</v>
       </c>
       <c r="D55" s="2">
-        <f>B55/C55</f>
+        <f t="shared" si="2"/>
         <v>3.7133593359720249</v>
       </c>
     </row>
@@ -7776,7 +7819,7 @@
         <v>85.593999999999994</v>
       </c>
       <c r="D56" s="2">
-        <f>B56/C56</f>
+        <f t="shared" si="2"/>
         <v>4.5124074117344675</v>
       </c>
     </row>
@@ -7791,7 +7834,7 @@
         <v>75.216999999999999</v>
       </c>
       <c r="D57" s="2">
-        <f>B57/C57</f>
+        <f t="shared" si="2"/>
         <v>5.1618118244545776</v>
       </c>
     </row>
@@ -7806,7 +7849,7 @@
         <v>63.387</v>
       </c>
       <c r="D58" s="2">
-        <f>B58/C58</f>
+        <f t="shared" si="2"/>
         <v>6.1033177149888775</v>
       </c>
     </row>
@@ -7821,7 +7864,7 @@
         <v>54.89</v>
       </c>
       <c r="D59" s="2">
-        <f>B59/C59</f>
+        <f t="shared" si="2"/>
         <v>7.0222444889779565</v>
       </c>
     </row>
@@ -7836,7 +7879,7 @@
         <v>73.391999999999996</v>
       </c>
       <c r="D60" s="2">
-        <f>B60/C60</f>
+        <f t="shared" si="2"/>
         <v>5.2634619577065624</v>
       </c>
     </row>
@@ -7851,7 +7894,7 @@
         <v>68.031999999999996</v>
       </c>
       <c r="D61" s="2">
-        <f>B61/C61</f>
+        <f t="shared" si="2"/>
         <v>5.7354480244590782</v>
       </c>
     </row>
@@ -7866,7 +7909,7 @@
         <v>59.734999999999999</v>
       </c>
       <c r="D62" s="2">
-        <f>B62/C62</f>
+        <f t="shared" si="2"/>
         <v>6.4710303841968697</v>
       </c>
     </row>
@@ -7881,7 +7924,7 @@
         <v>63.317999999999998</v>
       </c>
       <c r="D63" s="2">
-        <f>B63/C63</f>
+        <f t="shared" si="2"/>
         <v>6.1148330648472786</v>
       </c>
     </row>
@@ -7896,7 +7939,7 @@
         <v>64.793000000000006</v>
       </c>
       <c r="D64" s="2">
-        <f>B64/C64</f>
+        <f t="shared" si="2"/>
         <v>5.9663389563687428</v>
       </c>
     </row>
@@ -7911,7 +7954,7 @@
         <v>77.197999999999993</v>
       </c>
       <c r="D65" s="2">
-        <f>B65/C65</f>
+        <f t="shared" si="2"/>
         <v>5.086750952097205</v>
       </c>
     </row>
@@ -7926,7 +7969,7 @@
         <v>71.656000000000006</v>
       </c>
       <c r="D66" s="2">
-        <f>B66/C66</f>
+        <f t="shared" si="2"/>
         <v>5.4894216813665286</v>
       </c>
     </row>
@@ -7941,7 +7984,7 @@
         <v>70.155000000000001</v>
       </c>
       <c r="D67" s="2">
-        <f>B67/C67</f>
+        <f t="shared" si="2"/>
         <v>5.6134416648848973</v>
       </c>
     </row>
@@ -8066,10 +8109,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC2C980-0CB4-49DE-AFE6-E87A0247F1EE}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="A1:A6 E1:E6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8185,6 +8228,132 @@
         <v>32.717435549525099</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>192.89400000000001</v>
+      </c>
+      <c r="C7">
+        <v>38.241999999999997</v>
+      </c>
+      <c r="D7">
+        <v>5.8739999999999997</v>
+      </c>
+      <c r="E7" s="5">
+        <f>B7/D7</f>
+        <v>32.838610827374872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>192.946</v>
+      </c>
+      <c r="C8">
+        <v>38.134999999999998</v>
+      </c>
+      <c r="D8">
+        <v>5.64</v>
+      </c>
+      <c r="E8" s="5">
+        <f>B8/D8</f>
+        <v>34.210283687943267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>192.98599999999999</v>
+      </c>
+      <c r="C9">
+        <v>38.1</v>
+      </c>
+      <c r="D9">
+        <v>5.67</v>
+      </c>
+      <c r="E9" s="5">
+        <f>B9/D9</f>
+        <v>34.036331569664902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>160</v>
+      </c>
+      <c r="B10">
+        <v>193.03200000000001</v>
+      </c>
+      <c r="C10">
+        <v>38.055</v>
+      </c>
+      <c r="D10">
+        <v>5.61</v>
+      </c>
+      <c r="E10" s="5">
+        <f>B10/D10</f>
+        <v>34.408556149732618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>200</v>
+      </c>
+      <c r="B11">
+        <v>192.047</v>
+      </c>
+      <c r="C11">
+        <v>38.067999999999998</v>
+      </c>
+      <c r="D11">
+        <v>5.62</v>
+      </c>
+      <c r="E11" s="5">
+        <f>B11/D11</f>
+        <v>34.172064056939497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>400</v>
+      </c>
+      <c r="B12">
+        <v>193.089</v>
+      </c>
+      <c r="C12">
+        <v>38.182000000000002</v>
+      </c>
+      <c r="D12">
+        <v>5.6619999999999999</v>
+      </c>
+      <c r="E12" s="5">
+        <f>B12/D12</f>
+        <v>34.102613917343696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>800</v>
+      </c>
+      <c r="B13">
+        <v>193.24799999999999</v>
+      </c>
+      <c r="C13">
+        <v>38.164999999999999</v>
+      </c>
+      <c r="D13">
+        <v>5.6790000000000003</v>
+      </c>
+      <c r="E13" s="5">
+        <f>B13/D13</f>
+        <v>34.028526148969888</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
